--- a/Admin, Doc & Patient tests.xlsx
+++ b/Admin, Doc & Patient tests.xlsx
@@ -2,44 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IIT workforce\Selenium Healthcare project\Project videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBC79E5-C92A-46DE-9716-C24F62EC5248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E436AA39-7A46-427A-AE08-25705BADABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFDAA468-B3B2-4059-93F9-2ED2F280E306}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{FFDAA468-B3B2-4059-93F9-2ED2F280E306}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
     <sheet name="Doctor" sheetId="2" r:id="rId2"/>
     <sheet name="Patient" sheetId="3" r:id="rId3"/>
-    <sheet name="Insurance" sheetId="4" r:id="rId4"/>
+    <sheet name="Template" sheetId="5" r:id="rId4"/>
+    <sheet name="Insurance" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="116">
   <si>
     <t>Test</t>
   </si>
@@ -342,6 +332,51 @@
   </si>
   <si>
     <t>The user should be able to see any specific report.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Then click on any specific report </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test steps:   </t>
+  </si>
+  <si>
+    <t>TC_001_ViewReports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login to MMP and click on 'Profile-&gt;View Reports' button </t>
+  </si>
+  <si>
+    <t>Input Data</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Validate the view reports in the patient module</t>
+  </si>
+  <si>
+    <t>Ensure the application is running</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -362,12 +397,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -382,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -390,6 +431,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,15 +775,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="8" max="8" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" customWidth="1"/>
+    <col min="4" max="4" width="45.453125" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+    <col min="8" max="8" width="51.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -773,7 +817,7 @@
       <c r="R1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +853,7 @@
       <c r="R2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -843,7 +887,7 @@
       <c r="R3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +923,7 @@
       <c r="R4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="101" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -915,7 +959,7 @@
       <c r="R5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -951,7 +995,7 @@
       <c r="R6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -985,7 +1029,7 @@
       <c r="R7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1065,7 @@
       <c r="R8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1099,7 @@
       <c r="R9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1135,7 @@
       <c r="R10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1169,7 @@
       <c r="R11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1205,7 @@
       <c r="R12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1239,7 @@
       <c r="R13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1275,7 @@
       <c r="R14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1309,7 @@
       <c r="R15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1345,7 @@
       <c r="R16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="88.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1381,7 @@
       <c r="R17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1415,7 @@
       <c r="R18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,19 +1466,19 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1512,7 @@
       <c r="R1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1548,7 @@
       <c r="R2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1554,19 +1598,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7098FFFC-8439-4E88-9F54-E0B67CFB543D}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.08984375" customWidth="1"/>
+    <col min="8" max="8" width="39.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="141" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1600,7 +1644,7 @@
       <c r="R1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="248.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="248.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1680,7 @@
       <c r="R2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1670,7 +1714,7 @@
       <c r="R3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="248.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="248.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,6 +1761,111 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F1AF9D-A1DD-4E12-9A49-8BB4D09FF6F3}">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="26" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:H9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2 JO2 TK2 ADG2 ANC2 AWY2 BGU2 BQQ2 CAM2 CKI2 CUE2 DEA2 DNW2 DXS2 EHO2 ERK2 FBG2 FLC2 FUY2 GEU2 GOQ2 GYM2 HII2 HSE2 ICA2 ILW2 IVS2 JFO2 JPK2 JZG2 KJC2 KSY2 LCU2 LMQ2 LWM2 MGI2 MQE2 NAA2 NJW2 NTS2 ODO2 ONK2 OXG2 PHC2 PQY2 QAU2 QKQ2 QUM2 REI2 ROE2 RYA2 SHW2 SRS2 TBO2 TLK2 TVG2 UFC2 UOY2 UYU2 VIQ2 VSM2 WCI2 WME2 WWA2" xr:uid="{B0B40C06-9A52-4C9F-BB1C-22C5762224CE}">
+      <formula1>"New Feature, Enhancement"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA84E69C-9132-4443-AB45-FDA3FB659ABE}">
   <dimension ref="A1:U6"/>
   <sheetViews>
@@ -1724,16 +1873,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="166.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1916,7 @@
       <c r="R1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1952,7 @@
       <c r="R2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1988,7 @@
       <c r="R3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +2024,7 @@
       <c r="R4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +2060,7 @@
       <c r="R5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="88.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
